--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1478225.131920988</v>
+        <v>-1481136.59613493</v>
       </c>
     </row>
     <row r="7">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>28.76792404307286</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.955806484181</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="H5" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.81211755888935</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.6439697847843</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="S6" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>35.6439697847818</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="J7" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.56963006527164</v>
+        <v>35.56963006527085</v>
       </c>
       <c r="R7" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07433971951016388</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.07433971951345597</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>21.45987517072736</v>
+        <v>175.680966266968</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368126</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>120.2142573015559</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714232</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
-        <v>9.633145769159105</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553079</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845744</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>23.87214001300525</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U10" t="n">
-        <v>108.3956697437094</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>271.4703410066332</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>214.8758999374382</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534533</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>17.84935903930786</v>
+        <v>208.0199369660614</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>362.1172408216255</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469698</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>8.99455849257471</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516568</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>133.4173359394596</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>84.0983718287825</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674405</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.6576746544297</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295186</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453023</v>
+        <v>54.52629139453146</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221333</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645704</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659977</v>
+        <v>117.0052706659998</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179215</v>
       </c>
       <c r="W23" t="n">
         <v>317.6307663651991</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453143</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>135.6366187464141</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659953</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943554</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707142</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510283</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659953</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452949</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221592</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3275,7 +3275,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.265843389499</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247498</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038409</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998809</v>
@@ -3515,7 +3515,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247503</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3661,7 +3661,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
         <v>117.0052706659985</v>
@@ -3673,13 +3673,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424834</v>
@@ -3791,7 +3791,7 @@
         <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645689</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.11791481822348</v>
+        <v>80.11791481822911</v>
       </c>
       <c r="C5" t="n">
-        <v>80.11791481822348</v>
+        <v>80.11791481822911</v>
       </c>
       <c r="D5" t="n">
-        <v>80.11791481822348</v>
+        <v>80.11791481822911</v>
       </c>
       <c r="E5" t="n">
-        <v>80.11791481822348</v>
+        <v>51.05940568381207</v>
       </c>
       <c r="F5" t="n">
-        <v>73.17241406902001</v>
+        <v>44.11390493460861</v>
       </c>
       <c r="G5" t="n">
-        <v>59.07563984257455</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="H5" t="n">
-        <v>18.1991526904197</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="I5" t="n">
-        <v>3.237417782450664</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="J5" t="n">
-        <v>43.30046284027762</v>
+        <v>43.30046284028067</v>
       </c>
       <c r="K5" t="n">
-        <v>43.30046284027762</v>
+        <v>83.36350789811044</v>
       </c>
       <c r="L5" t="n">
-        <v>43.30046284027762</v>
+        <v>83.36350789811044</v>
       </c>
       <c r="M5" t="n">
-        <v>83.36350789810459</v>
+        <v>123.4265529559402</v>
       </c>
       <c r="N5" t="n">
-        <v>121.8078440647062</v>
+        <v>134.2405284642201</v>
       </c>
       <c r="O5" t="n">
-        <v>161.8708891225332</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="P5" t="n">
-        <v>161.8708891225332</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="Q5" t="n">
-        <v>161.8708891225332</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="R5" t="n">
-        <v>120.9944019703783</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="S5" t="n">
-        <v>120.9944019703783</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="T5" t="n">
-        <v>120.9944019703783</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="U5" t="n">
-        <v>120.9944019703783</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="V5" t="n">
-        <v>80.11791481822348</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="W5" t="n">
-        <v>80.11791481822348</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="X5" t="n">
-        <v>80.11791481822348</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.11791481822348</v>
+        <v>80.11791481822911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="C6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="D6" t="n">
-        <v>44.11390493460551</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="E6" t="n">
-        <v>44.11390493460551</v>
+        <v>44.11390493460861</v>
       </c>
       <c r="F6" t="n">
-        <v>44.11390493460551</v>
+        <v>44.11390493460861</v>
       </c>
       <c r="G6" t="n">
-        <v>3.237417782450664</v>
+        <v>44.11390493460861</v>
       </c>
       <c r="H6" t="n">
-        <v>3.237417782450664</v>
+        <v>44.11390493460861</v>
       </c>
       <c r="I6" t="n">
-        <v>3.237417782450664</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="J6" t="n">
-        <v>31.8139837499885</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="K6" t="n">
-        <v>31.8139837499885</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="L6" t="n">
-        <v>49.55778307004474</v>
+        <v>20.98121710250955</v>
       </c>
       <c r="M6" t="n">
-        <v>89.6208281278717</v>
+        <v>61.04426216033933</v>
       </c>
       <c r="N6" t="n">
-        <v>129.6838731856987</v>
+        <v>101.1073072181691</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2650451243864</v>
+        <v>141.1703522759989</v>
       </c>
       <c r="P6" t="n">
-        <v>161.8708891225332</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.8708891225332</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="R6" t="n">
-        <v>120.9944019703783</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="S6" t="n">
-        <v>80.11791481822348</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="T6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="U6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="V6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="W6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="X6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.11390493460551</v>
+        <v>120.9944019703868</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.99039208676035</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="C7" t="n">
-        <v>84.99039208676035</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="D7" t="n">
-        <v>44.11390493460551</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="E7" t="n">
-        <v>44.11390493460551</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="F7" t="n">
-        <v>44.11390493460551</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="G7" t="n">
-        <v>44.11390493460551</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="H7" t="n">
-        <v>44.11390493460551</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="I7" t="n">
-        <v>44.11390493460551</v>
+        <v>44.11390493460861</v>
       </c>
       <c r="J7" t="n">
-        <v>3.237417782450664</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="K7" t="n">
-        <v>43.30046284027762</v>
+        <v>3.237417782450891</v>
       </c>
       <c r="L7" t="n">
-        <v>83.36350789810459</v>
+        <v>43.30046284028067</v>
       </c>
       <c r="M7" t="n">
-        <v>83.36350789810459</v>
+        <v>43.30046284028067</v>
       </c>
       <c r="N7" t="n">
-        <v>121.8078440647062</v>
+        <v>83.36350789811044</v>
       </c>
       <c r="O7" t="n">
-        <v>161.8708891225332</v>
+        <v>121.8078440647148</v>
       </c>
       <c r="P7" t="n">
-        <v>161.8708891225332</v>
+        <v>161.8708891225446</v>
       </c>
       <c r="Q7" t="n">
-        <v>125.941969864683</v>
+        <v>125.9419698646952</v>
       </c>
       <c r="R7" t="n">
-        <v>85.06548271252819</v>
+        <v>125.9419698646952</v>
       </c>
       <c r="S7" t="n">
-        <v>84.99039208676035</v>
+        <v>125.9419698646952</v>
       </c>
       <c r="T7" t="n">
-        <v>84.99039208676035</v>
+        <v>85.06548271253749</v>
       </c>
       <c r="U7" t="n">
-        <v>84.99039208676035</v>
+        <v>85.06548271253749</v>
       </c>
       <c r="V7" t="n">
-        <v>84.99039208676035</v>
+        <v>85.06548271253749</v>
       </c>
       <c r="W7" t="n">
-        <v>84.99039208676035</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="X7" t="n">
-        <v>84.99039208676035</v>
+        <v>84.99039208676632</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.99039208676035</v>
+        <v>84.99039208676632</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="C8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="D8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="E8" t="n">
-        <v>170.362893470693</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="F8" t="n">
-        <v>163.4173927214895</v>
+        <v>192.4575684550914</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M8" t="n">
         <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123835</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985593</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020275</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201482</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201482</v>
+        <v>578.242639237264</v>
       </c>
       <c r="T8" t="n">
-        <v>549.2024635036631</v>
+        <v>578.242639237264</v>
       </c>
       <c r="U8" t="n">
-        <v>359.782678487178</v>
+        <v>578.242639237264</v>
       </c>
       <c r="V8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="W8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="X8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.362893470693</v>
+        <v>388.8228542207794</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.133934959413</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="C9" t="n">
-        <v>166.133934959413</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="D9" t="n">
-        <v>166.133934959413</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="E9" t="n">
-        <v>166.133934959413</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="F9" t="n">
-        <v>166.133934959413</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G9" t="n">
         <v>166.133934959413</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R9" t="n">
-        <v>722.919292284329</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S9" t="n">
-        <v>713.1888420124511</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="T9" t="n">
-        <v>713.1888420124511</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="U9" t="n">
-        <v>713.1888420124511</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="V9" t="n">
-        <v>713.1888420124511</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="W9" t="n">
-        <v>713.1888420124511</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="X9" t="n">
-        <v>523.769056995966</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.349271979481</v>
+        <v>571.6362168389232</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>637.2349224859322</v>
+        <v>343.7726552112479</v>
       </c>
       <c r="C10" t="n">
-        <v>637.2349224859322</v>
+        <v>343.7726552112479</v>
       </c>
       <c r="D10" t="n">
-        <v>637.2349224859322</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="E10" t="n">
-        <v>489.3218289035391</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="F10" t="n">
-        <v>489.3218289035391</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="G10" t="n">
-        <v>320.6330054664541</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818526</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818526</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594235</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L10" t="n">
-        <v>216.0634826394166</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M10" t="n">
-        <v>401.7138139340736</v>
+        <v>448.2056470819951</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287306</v>
+        <v>471.6341805242512</v>
       </c>
       <c r="O10" t="n">
-        <v>750.1023486652808</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846285</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846285</v>
+        <v>722.6122252442171</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846285</v>
+        <v>722.6122252442171</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846285</v>
+        <v>533.1924402277325</v>
       </c>
       <c r="U10" t="n">
-        <v>637.2349224859322</v>
+        <v>533.1924402277325</v>
       </c>
       <c r="V10" t="n">
-        <v>637.2349224859322</v>
+        <v>343.7726552112479</v>
       </c>
       <c r="W10" t="n">
-        <v>637.2349224859322</v>
+        <v>343.7726552112479</v>
       </c>
       <c r="X10" t="n">
-        <v>637.2349224859322</v>
+        <v>343.7726552112479</v>
       </c>
       <c r="Y10" t="n">
-        <v>637.2349224859322</v>
+        <v>343.7726552112479</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.419770374777</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.154071768027</v>
+        <v>581.1420803965862</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>581.1420803965862</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784195</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234161</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1909.264892493232</v>
+        <v>1717.173399637926</v>
       </c>
       <c r="U13" t="n">
-        <v>1620.162025618876</v>
+        <v>1428.070532763569</v>
       </c>
       <c r="V13" t="n">
-        <v>1365.477537412989</v>
+        <v>1173.386044557682</v>
       </c>
       <c r="W13" t="n">
-        <v>1076.060367376028</v>
+        <v>1173.386044557682</v>
       </c>
       <c r="X13" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="Y13" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2322.125037684381</v>
+        <v>1866.026662509058</v>
       </c>
       <c r="C14" t="n">
-        <v>1953.162520743969</v>
+        <v>1497.064145568647</v>
       </c>
       <c r="D14" t="n">
-        <v>1594.896822137219</v>
+        <v>1138.798446961896</v>
       </c>
       <c r="E14" t="n">
-        <v>1209.108569538975</v>
+        <v>753.0101943636519</v>
       </c>
       <c r="F14" t="n">
-        <v>798.122664749367</v>
+        <v>753.0101943636519</v>
       </c>
       <c r="G14" t="n">
-        <v>383.8151835605148</v>
+        <v>387.2352036347372</v>
       </c>
       <c r="H14" t="n">
-        <v>94.06582159387858</v>
+        <v>97.48584166810102</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
         <v>2681.771598889755</v>
@@ -5297,31 +5297,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>4156.16151059908</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>4156.16151059908</v>
+        <v>3700.063135423757</v>
       </c>
       <c r="V14" t="n">
-        <v>3825.098623255509</v>
+        <v>3369.000248080186</v>
       </c>
       <c r="W14" t="n">
-        <v>3472.329967985394</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X14" t="n">
-        <v>3098.864209724315</v>
+        <v>2642.765834548992</v>
       </c>
       <c r="Y14" t="n">
-        <v>2708.724877748503</v>
+        <v>2252.62650257318</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.28233189698</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N15" t="n">
-        <v>1662.137679823382</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.2282914070943</v>
+        <v>845.0208705506244</v>
       </c>
       <c r="C16" t="n">
-        <v>489.4633056096603</v>
+        <v>845.0208705506244</v>
       </c>
       <c r="D16" t="n">
-        <v>339.3466661973246</v>
+        <v>694.9042311382887</v>
       </c>
       <c r="E16" t="n">
-        <v>339.3466661973246</v>
+        <v>546.9911375558955</v>
       </c>
       <c r="F16" t="n">
-        <v>339.3466661973246</v>
+        <v>400.1011900579851</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152618</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755868</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869777</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042034</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5479,7 +5479,7 @@
         <v>1026.669335380864</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.876756237334</v>
+        <v>1026.669335380864</v>
       </c>
     </row>
     <row r="17">
@@ -5498,67 +5498,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796679</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538068</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N18" t="n">
-        <v>2100.17100246447</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O18" t="n">
         <v>2168.542634771632</v>
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609052</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749457</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897945</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
         <v>2144.90183912767</v>
@@ -5707,7 +5707,7 @@
         <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
         <v>1407.504522645592</v>
@@ -5729,7 +5729,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
@@ -5738,22 +5738,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,25 +5762,25 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
         <v>3795.851627400162</v>
@@ -5826,28 +5826,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277781</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
@@ -5929,31 +5929,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796679</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5993,22 +5993,22 @@
         <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755812</v>
@@ -6020,7 +6020,7 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
         <v>3496.71823738206</v>
@@ -6066,22 +6066,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M24" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N24" t="n">
-        <v>1968.593900456</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O24" t="n">
-        <v>2474.998855404251</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609053</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749457</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897945</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
@@ -6166,19 +6166,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357084</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254982</v>
@@ -6203,19 +6203,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162834</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511626</v>
@@ -6227,49 +6227,49 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334506</v>
+        <v>396.8707822608523</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277781</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449135</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O27" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6364,10 +6364,10 @@
         <v>735.8557341477693</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609021</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039775</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F28" t="n">
         <v>386.7245456315389</v>
@@ -6446,67 +6446,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076826</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502078</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477693</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F31" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897925</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796662</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6716,34 +6716,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L33" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>1968.593900456</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>2474.998855404251</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
@@ -6868,16 +6868,16 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352543</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F35" t="n">
         <v>725.1782574796675</v>
@@ -6935,25 +6935,25 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233289</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.90714476723</v>
@@ -6980,7 +6980,7 @@
         <v>2834.342818501805</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511626</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511626</v>
@@ -7096,10 +7096,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040894</v>
@@ -7117,16 +7117,16 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357084</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216583</v>
@@ -7160,10 +7160,10 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511625</v>
@@ -7172,7 +7172,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
         <v>766.6831886951452</v>
@@ -7181,19 +7181,19 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
         <v>4249.020448755812</v>
@@ -7251,28 +7251,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7369,7 +7369,7 @@
         <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073043</v>
@@ -7400,7 +7400,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511625</v>
@@ -7409,7 +7409,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K41" t="n">
         <v>766.6831886951452</v>
@@ -7418,10 +7418,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7488,22 +7488,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>1968.593900456</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502112</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609058</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039813</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315395</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
@@ -7591,16 +7591,16 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,10 +7609,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
@@ -7840,10 +7840,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K2" t="n">
         <v>86.72591490550931</v>
@@ -7985,7 +7985,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N2" t="n">
         <v>42.33948647951536</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K3" t="n">
         <v>47.25897875440141</v>
@@ -8149,10 +8149,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O4" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.1945392188834</v>
+        <v>107.1945392188845</v>
       </c>
       <c r="K5" t="n">
-        <v>48.75517291625951</v>
+        <v>89.22289519689298</v>
       </c>
       <c r="L5" t="n">
-        <v>23.21059630270625</v>
+        <v>23.21059630270292</v>
       </c>
       <c r="M5" t="n">
-        <v>34.304652118896</v>
+        <v>34.30465211889515</v>
       </c>
       <c r="N5" t="n">
-        <v>27.9094552104298</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>43.62320796066112</v>
+        <v>31.06494089045305</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5426298402887</v>
+        <v>37.54262984028568</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.85229150551052</v>
+        <v>76.85229150550825</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>87.61517941217534</v>
+        <v>58.74996126314616</v>
       </c>
       <c r="K6" t="n">
-        <v>21.468773955958</v>
+        <v>21.46877395595618</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.59785163549432</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>17.26736651353213</v>
       </c>
       <c r="Q6" t="n">
-        <v>47.98867191323333</v>
+        <v>47.9886719132319</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>99.28544896463275</v>
+        <v>58.81772668399834</v>
       </c>
       <c r="L7" t="n">
-        <v>85.52628573473471</v>
+        <v>85.52628573473616</v>
       </c>
       <c r="M7" t="n">
-        <v>44.21674252175691</v>
+        <v>44.21674252175544</v>
       </c>
       <c r="N7" t="n">
-        <v>74.06113515392268</v>
+        <v>75.69619464001026</v>
       </c>
       <c r="O7" t="n">
-        <v>93.52519003195485</v>
+        <v>91.89013054587005</v>
       </c>
       <c r="P7" t="n">
-        <v>64.65434591950176</v>
+        <v>105.1220682001368</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>98.29368706161306</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>154.1946371899309</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711118</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-2.131628207280301e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.5449949203558</v>
+        <v>362.7908961208087</v>
       </c>
     </row>
     <row r="3">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>93.80255076437419</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722594</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>192.0001458042732</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881757</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589019</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>201.6995902368613</v>
+        <v>11.52901231010784</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>48.04716555533821</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.385819873480203</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>33.82948515916823</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.58772907445963</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.536637566663558e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-2.613967149381496e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>-5.983806170942118e-13</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.328714915871387e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.311129148642067e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.268496584496461e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.311129148642067e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1225018.119041316</v>
+        <v>1225018.119041317</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1293435.53060334</v>
+        <v>1293435.530603339</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1065630.222320028</v>
+        <v>1065630.222320027</v>
       </c>
     </row>
     <row r="6">
@@ -26317,43 +26317,43 @@
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>136398.8395883683</v>
+        <v>136398.8395883682</v>
       </c>
       <c r="F2" t="n">
-        <v>153348.636390262</v>
+        <v>153348.6363902621</v>
       </c>
       <c r="G2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728565</v>
       </c>
       <c r="H2" t="n">
+        <v>164208.3539728569</v>
+      </c>
+      <c r="I2" t="n">
         <v>164208.3539728565</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="K2" t="n">
+        <v>164208.3539728565</v>
+      </c>
+      <c r="L2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="J2" t="n">
-        <v>164208.3539728569</v>
-      </c>
-      <c r="K2" t="n">
-        <v>164208.3539728564</v>
-      </c>
-      <c r="L2" t="n">
-        <v>164208.3539728565</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="N2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728565</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>80688.59322776672</v>
+        <v>80688.59322777241</v>
       </c>
       <c r="D3" t="n">
-        <v>228457.1858004848</v>
+        <v>228457.1858004787</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336671</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963084</v>
+        <v>215052.109696308</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177106</v>
+        <v>25288.16188177115</v>
       </c>
       <c r="H3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10415.09674792191</v>
+        <v>10415.09674792276</v>
       </c>
       <c r="L3" t="n">
-        <v>62507.18396355449</v>
+        <v>62507.18396355373</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.2935957862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333797.1370205925</v>
+        <v>333797.1370205927</v>
       </c>
       <c r="C4" t="n">
-        <v>339327.6808081053</v>
+        <v>339327.6808081036</v>
       </c>
       <c r="D4" t="n">
-        <v>272582.5508032601</v>
+        <v>272582.5508032603</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079339</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9279.934068777682</v>
+        <v>9279.934068777684</v>
       </c>
       <c r="G4" t="n">
-        <v>40349.8191509976</v>
+        <v>40349.81915099772</v>
       </c>
       <c r="H4" t="n">
-        <v>40349.81915099768</v>
+        <v>40349.81915099772</v>
       </c>
       <c r="I4" t="n">
-        <v>40349.81915099768</v>
+        <v>40349.81915099769</v>
       </c>
       <c r="J4" t="n">
         <v>40349.81915099757</v>
       </c>
       <c r="K4" t="n">
-        <v>40349.81915099765</v>
+        <v>40349.81915099757</v>
       </c>
       <c r="L4" t="n">
-        <v>40349.81915099765</v>
+        <v>40349.81915099769</v>
       </c>
       <c r="M4" t="n">
-        <v>40349.8191509976</v>
+        <v>40349.81915099763</v>
       </c>
       <c r="N4" t="n">
-        <v>40349.81915099765</v>
+        <v>40349.81915099763</v>
       </c>
       <c r="O4" t="n">
         <v>40349.81915099766</v>
       </c>
       <c r="P4" t="n">
-        <v>40349.81915099766</v>
+        <v>40349.81915099768</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>39312.96135688073</v>
       </c>
       <c r="C5" t="n">
-        <v>43392.10776276857</v>
+        <v>43392.10776276886</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060703</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95106.43410215531</v>
       </c>
       <c r="I5" t="n">
         <v>95106.4341021553</v>
@@ -26494,10 +26494,10 @@
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215531</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469799.1861218529</v>
+        <v>-469919.0692160319</v>
       </c>
       <c r="C6" t="n">
-        <v>-299200.0278257839</v>
+        <v>-299200.0278257882</v>
       </c>
       <c r="D6" t="n">
-        <v>-393817.1830425019</v>
+        <v>-393817.1830424959</v>
       </c>
       <c r="E6" t="n">
-        <v>-574202.6037437716</v>
+        <v>-574550.2226735784</v>
       </c>
       <c r="F6" t="n">
-        <v>-163432.4033754311</v>
+        <v>-163568.149845213</v>
       </c>
       <c r="G6" t="n">
-        <v>3463.938837932699</v>
+        <v>3463.938837932335</v>
       </c>
       <c r="H6" t="n">
-        <v>28752.10071970346</v>
+        <v>28752.10071970384</v>
       </c>
       <c r="I6" t="n">
+        <v>28752.10071970352</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28752.10071970405</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18337.00397178081</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-33755.08324385012</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-131704.3411481739</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-27790.19287608254</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28752.1007197037</v>
+      </c>
+      <c r="P6" t="n">
         <v>28752.10071970365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28752.10071970399</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18337.0039717816</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-33755.08324385091</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-131704.3411481737</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-27790.19287608276</v>
-      </c>
-      <c r="O6" t="n">
-        <v>28752.10071970364</v>
-      </c>
-      <c r="P6" t="n">
-        <v>28752.1007197037</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221379</v>
       </c>
       <c r="K2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221387</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221389</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221389</v>
       </c>
       <c r="P2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>335.0490939498195</v>
+        <v>335.0490939498247</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>74.25270143235468</v>
+        <v>74.25270143235991</v>
       </c>
       <c r="D3" t="n">
-        <v>213.4208469630854</v>
+        <v>213.4208469630795</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803932</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268252</v>
+        <v>188.3831700268247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.46772228063328</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="D4" t="n">
-        <v>147.0578648856869</v>
+        <v>147.0578648856836</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.46772228063283</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="L4" t="n">
-        <v>147.057864885687</v>
+        <v>147.0578648856834</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359734</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866597</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.46772228063328</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0578648856869</v>
+        <v>147.0578648856836</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S2" t="n">
         <v>185.1290231762283</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5063572696783</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2617786911475</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.6929437356978</v>
+        <v>23.44704253524486</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R4" t="n">
         <v>156.1475068297698</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>353.1624460291889</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>373.4880842035448</v>
       </c>
       <c r="H5" t="n">
-        <v>285.2128224143758</v>
+        <v>325.6805446950088</v>
       </c>
       <c r="I5" t="n">
-        <v>143.7362134406606</v>
+        <v>158.5483309995491</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.79223928734913</v>
+        <v>65.25996156798112</v>
       </c>
       <c r="S5" t="n">
-        <v>178.32687871838</v>
+        <v>178.3268787183795</v>
       </c>
       <c r="T5" t="n">
-        <v>217.19965897613</v>
+        <v>176.7319366954938</v>
       </c>
       <c r="U5" t="n">
         <v>251.2378984253602</v>
       </c>
       <c r="V5" t="n">
-        <v>287.2845361895016</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7702163754175</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>111.8010957798544</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>117.1773581747648</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>96.15512324653432</v>
+        <v>136.6228455271676</v>
       </c>
       <c r="H6" t="n">
-        <v>105.2752734357653</v>
+        <v>105.2752734357652</v>
       </c>
       <c r="I6" t="n">
-        <v>64.58403485607467</v>
+        <v>24.11631257543814</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.94525362716411</v>
+        <v>14.94525362716057</v>
       </c>
       <c r="S6" t="n">
-        <v>117.8292892677566</v>
+        <v>158.2970115483896</v>
       </c>
       <c r="T6" t="n">
-        <v>161.615946482305</v>
+        <v>197.2599162670868</v>
       </c>
       <c r="U6" t="n">
         <v>225.8939694733404</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1477507375791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3867924677296</v>
       </c>
       <c r="H7" t="n">
-        <v>156.8554017880474</v>
+        <v>156.8554017880473</v>
       </c>
       <c r="I7" t="n">
-        <v>137.2809273406025</v>
+        <v>96.81320505996607</v>
       </c>
       <c r="J7" t="n">
-        <v>10.17544466148627</v>
+        <v>10.17544466148276</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>109.6592294461131</v>
+        <v>150.126951726746</v>
       </c>
       <c r="S7" t="n">
-        <v>213.4129285944817</v>
+        <v>213.4872683139917</v>
       </c>
       <c r="T7" t="n">
-        <v>225.3640636224386</v>
+        <v>184.8963413418024</v>
       </c>
       <c r="U7" t="n">
         <v>286.2860737079056</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>286.4486586170776</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>391.6379580593307</v>
+        <v>237.4168669630901</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988656</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871013</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.2266713038147</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>37.43082315384501</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>140.1370989217905</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098415</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.9502295976852</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378038</v>
       </c>
       <c r="U10" t="n">
-        <v>177.8694117497409</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.367821182006585e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,22 +28138,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605491</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605491</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605491</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605491</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221264</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605491</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>31.61020235221389</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221363</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U41" t="n">
         <v>31.61020235221389</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605491</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
         <v>31.61020235221338</v>
       </c>
       <c r="X44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K2" t="n">
         <v>133.3639361394712</v>
@@ -31072,7 +31072,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R2" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S2" t="n">
         <v>23.89104641001701</v>
@@ -31081,7 +31081,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,7 +31121,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I3" t="n">
         <v>19.31369510624622</v>
@@ -31154,7 +31154,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S3" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T3" t="n">
         <v>2.261055516259907</v>
@@ -31206,7 +31206,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K4" t="n">
         <v>54.63898190775737</v>
@@ -31221,13 +31221,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R4" t="n">
         <v>21.14588454739968</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.346931030954047</v>
+        <v>1.346931030954068</v>
       </c>
       <c r="H5" t="n">
-        <v>13.79425742075814</v>
+        <v>13.79425742075835</v>
       </c>
       <c r="I5" t="n">
-        <v>51.92755857085596</v>
+        <v>51.92755857085677</v>
       </c>
       <c r="J5" t="n">
-        <v>114.3190875884362</v>
+        <v>114.319087588438</v>
       </c>
       <c r="K5" t="n">
-        <v>171.334678128721</v>
+        <v>171.3346781287237</v>
       </c>
       <c r="L5" t="n">
-        <v>212.555818667281</v>
+        <v>212.5558186672843</v>
       </c>
       <c r="M5" t="n">
-        <v>236.50930338901</v>
+        <v>236.5093033890137</v>
       </c>
       <c r="N5" t="n">
-        <v>240.3362711807082</v>
+        <v>240.336271180712</v>
       </c>
       <c r="O5" t="n">
-        <v>226.9427257416589</v>
+        <v>226.9427257416625</v>
       </c>
       <c r="P5" t="n">
-        <v>193.6903659149808</v>
+        <v>193.6903659149839</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.453398368939</v>
+        <v>145.4533983689412</v>
       </c>
       <c r="R5" t="n">
-        <v>84.60915637316725</v>
+        <v>84.60915637316856</v>
       </c>
       <c r="S5" t="n">
-        <v>30.69319086786538</v>
+        <v>30.69319086786586</v>
       </c>
       <c r="T5" t="n">
-        <v>5.896190588001345</v>
+        <v>5.896190588001437</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1077544824763238</v>
+        <v>0.1077544824763254</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.720671636043008</v>
+        <v>0.7206716360430193</v>
       </c>
       <c r="H6" t="n">
-        <v>6.960170800731158</v>
+        <v>6.960170800731266</v>
       </c>
       <c r="I6" t="n">
-        <v>24.81259799534041</v>
+        <v>24.8125979953408</v>
       </c>
       <c r="J6" t="n">
-        <v>68.08766540351947</v>
+        <v>68.08766540352053</v>
       </c>
       <c r="K6" t="n">
-        <v>116.372665018401</v>
+        <v>116.3726650184028</v>
       </c>
       <c r="L6" t="n">
-        <v>156.4774093960926</v>
+        <v>156.4774093960951</v>
       </c>
       <c r="M6" t="n">
-        <v>182.6017562026516</v>
+        <v>182.6017562026545</v>
       </c>
       <c r="N6" t="n">
-        <v>171.8094343639666</v>
+        <v>171.8094343639694</v>
       </c>
       <c r="O6" t="n">
-        <v>171.4661150895836</v>
+        <v>171.4661150895863</v>
       </c>
       <c r="P6" t="n">
-        <v>137.6166740791249</v>
+        <v>137.6166740791271</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.99310217278818</v>
+        <v>91.99310217278962</v>
       </c>
       <c r="R6" t="n">
-        <v>44.74485824484572</v>
+        <v>44.74485824484643</v>
       </c>
       <c r="S6" t="n">
-        <v>13.38615955544797</v>
+        <v>13.38615955544818</v>
       </c>
       <c r="T6" t="n">
-        <v>2.904812427734755</v>
+        <v>2.9048124277348</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04741260763440844</v>
+        <v>0.04741260763440918</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6041868907291826</v>
+        <v>0.6041868907291921</v>
       </c>
       <c r="H7" t="n">
-        <v>5.371770719392192</v>
+        <v>5.371770719392275</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16954758665579</v>
+        <v>18.16954758665607</v>
       </c>
       <c r="J7" t="n">
-        <v>42.71601317455321</v>
+        <v>42.71601317455388</v>
       </c>
       <c r="K7" t="n">
-        <v>70.19553148653593</v>
+        <v>70.19553148653704</v>
       </c>
       <c r="L7" t="n">
-        <v>89.82611282713687</v>
+        <v>89.82611282713826</v>
       </c>
       <c r="M7" t="n">
-        <v>94.70904142584814</v>
+        <v>94.70904142584962</v>
       </c>
       <c r="N7" t="n">
-        <v>92.45707210585762</v>
+        <v>92.45707210585907</v>
       </c>
       <c r="O7" t="n">
-        <v>85.39907070052124</v>
+        <v>85.39907070052256</v>
       </c>
       <c r="P7" t="n">
-        <v>73.07365812964585</v>
+        <v>73.07365812964699</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.59241318642275</v>
+        <v>50.59241318642353</v>
       </c>
       <c r="R7" t="n">
-        <v>27.16643965042306</v>
+        <v>27.16643965042348</v>
       </c>
       <c r="S7" t="n">
-        <v>10.52932972298039</v>
+        <v>10.52932972298055</v>
       </c>
       <c r="T7" t="n">
-        <v>2.581525805842871</v>
+        <v>2.581525805842911</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03295564858522818</v>
+        <v>0.0329556485852287</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I14" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O14" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R14" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,34 +32069,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>387.0453914752219</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578285</v>
+        <v>555.1640776830025</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32151,7 +32151,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838147</v>
@@ -32160,13 +32160,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
         <v>325.7840929246177</v>
@@ -32181,10 +32181,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32227,46 +32227,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879671</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>211.6584993001642</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32388,7 +32388,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32397,13 +32397,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
         <v>325.7840929246177</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32464,46 +32464,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,34 +32543,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>616.0816594412368</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32625,7 +32625,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,13 +32634,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
         <v>325.7840929246177</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
         <v>443.9435090247272</v>
@@ -32801,10 +32801,10 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578285</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P24" t="n">
-        <v>215.4343416764895</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33026,13 +33026,13 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247272</v>
+        <v>319.9760564261431</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>645.1509001052077</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160632</v>
@@ -33041,13 +33041,13 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33260,10 +33260,10 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>414.6940864885829</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
         <v>443.9435090247272</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P33" t="n">
-        <v>215.4343416764895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,25 +33734,25 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>693.14746152559</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
@@ -33983,19 +33983,19 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
-        <v>475.6116682468174</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
         <v>443.9435090247272</v>
@@ -34223,10 +34223,10 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>344.5646629450831</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34378,13 +34378,13 @@
         <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117593</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
         <v>865.750990556568</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972013</v>
@@ -34445,31 +34445,31 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>457.1748150187213</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="N5" t="n">
-        <v>38.8326627945471</v>
+        <v>10.92320758412106</v>
       </c>
       <c r="O5" t="n">
-        <v>40.4677222806333</v>
+        <v>27.90945521042878</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28.86521814902812</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>17.92302961621843</v>
+        <v>17.92302961622087</v>
       </c>
       <c r="M6" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="N6" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="O6" t="n">
-        <v>28.86987064513914</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="P6" t="n">
-        <v>3.642266664794704</v>
+        <v>20.90963317832896</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>40.4677222806333</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>40.4677222806333</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>38.8326627945471</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="O7" t="n">
-        <v>40.4677222806333</v>
+        <v>38.83266279454983</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>40.46772228063614</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062408</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L10" t="n">
-        <v>110.4529028080739</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663202</v>
+        <v>170.3060203105423</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663202</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O10" t="n">
-        <v>164.3820236732831</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L14" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>244.9113575532035</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133841</v>
+        <v>412.567833238558</v>
       </c>
       <c r="P15" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714192</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.262591229521</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.884051537296</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386574</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
         <v>276.043131703092</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659488</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>69.0622548557198</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>484.7399473579034</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133841</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
         <v>306.1020700503682</v>
@@ -36449,10 +36449,10 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133841</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P24" t="n">
-        <v>81.45993426215921</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36674,13 +36674,13 @@
         <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503682</v>
+        <v>182.1346174517841</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>503.0168661831893</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327299</v>
@@ -36689,13 +36689,13 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116832</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721833</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>272.0978420441385</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721833</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227518</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440219</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
         <v>306.1020700503682</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P33" t="n">
-        <v>81.45993426215921</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895099</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>551.0134276035717</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P36" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37564,7 +37564,7 @@
         <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440229</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
@@ -37631,19 +37631,19 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2699561634842</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P39" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37792,7 +37792,7 @@
         <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P41" t="n">
         <v>507.6654448276933</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
         <v>306.1020700503682</v>
@@ -37871,10 +37871,10 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>201.9684185006386</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P42" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38026,13 +38026,13 @@
         <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
         <v>635.6527791348813</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227518</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>315.040781096703</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P45" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
